--- a/정원/project_3/2_1_지청_신설.xlsx
+++ b/정원/project_3/2_1_지청_신설.xlsx
@@ -568,16 +568,16 @@
         <v>1118883</v>
       </c>
       <c r="N2" t="n">
-        <v>3209</v>
+        <v>3144</v>
       </c>
       <c r="O2" t="n">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="P2" t="n">
         <v>8042</v>
       </c>
       <c r="Q2" t="n">
-        <v>16099</v>
+        <v>16898</v>
       </c>
     </row>
     <row r="3">
@@ -633,16 +633,16 @@
         <v>730965</v>
       </c>
       <c r="N3" t="n">
-        <v>2063</v>
+        <v>2034</v>
       </c>
       <c r="O3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P3" t="n">
         <v>69</v>
       </c>
       <c r="Q3" t="n">
-        <v>17926</v>
+        <v>17967</v>
       </c>
     </row>
     <row r="4">
@@ -698,16 +698,16 @@
         <v>735728</v>
       </c>
       <c r="N4" t="n">
-        <v>5303</v>
+        <v>5138</v>
       </c>
       <c r="O4" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P4" t="n">
         <v>8782</v>
       </c>
       <c r="Q4" t="n">
-        <v>16209</v>
+        <v>17127</v>
       </c>
     </row>
     <row r="5">
@@ -763,16 +763,16 @@
         <v>528901</v>
       </c>
       <c r="N5" t="n">
-        <v>2163</v>
+        <v>2058</v>
       </c>
       <c r="O5" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="P5" t="n">
         <v>1664</v>
       </c>
       <c r="Q5" t="n">
-        <v>10795</v>
+        <v>9371</v>
       </c>
     </row>
     <row r="6">
@@ -828,16 +828,16 @@
         <v>719842</v>
       </c>
       <c r="N6" t="n">
-        <v>2827</v>
+        <v>2698</v>
       </c>
       <c r="O6" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P6" t="n">
         <v>9494</v>
       </c>
       <c r="Q6" t="n">
-        <v>12562</v>
+        <v>12064</v>
       </c>
     </row>
     <row r="7">
@@ -893,16 +893,16 @@
         <v>350066</v>
       </c>
       <c r="N7" t="n">
-        <v>2072</v>
+        <v>1944</v>
       </c>
       <c r="O7" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="P7" t="n">
         <v>4999</v>
       </c>
       <c r="Q7" t="n">
-        <v>7886</v>
+        <v>7078</v>
       </c>
     </row>
     <row r="8">
@@ -958,16 +958,16 @@
         <v>580994</v>
       </c>
       <c r="N8" t="n">
-        <v>2222</v>
+        <v>2089</v>
       </c>
       <c r="O8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P8" t="n">
         <v>558</v>
       </c>
       <c r="Q8" t="n">
-        <v>11845</v>
+        <v>12107</v>
       </c>
     </row>
     <row r="9">
@@ -1023,16 +1023,16 @@
         <v>534171</v>
       </c>
       <c r="N9" t="n">
-        <v>4594</v>
+        <v>4422</v>
       </c>
       <c r="O9" t="n">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="P9" t="n">
         <v>1779</v>
       </c>
       <c r="Q9" t="n">
-        <v>14981</v>
+        <v>12582</v>
       </c>
     </row>
     <row r="10">
@@ -1088,16 +1088,16 @@
         <v>396227</v>
       </c>
       <c r="N10" t="n">
-        <v>3780</v>
+        <v>3638</v>
       </c>
       <c r="O10" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="P10" t="n">
         <v>65546</v>
       </c>
       <c r="Q10" t="n">
-        <v>12137</v>
+        <v>11478</v>
       </c>
     </row>
     <row r="11">
@@ -1153,16 +1153,16 @@
         <v>401360</v>
       </c>
       <c r="N11" t="n">
-        <v>3093</v>
+        <v>2930</v>
       </c>
       <c r="O11" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="P11" t="n">
         <v>108</v>
       </c>
       <c r="Q11" t="n">
-        <v>11129</v>
+        <v>10626</v>
       </c>
     </row>
     <row r="12">
@@ -1218,16 +1218,16 @@
         <v>496060</v>
       </c>
       <c r="N12" t="n">
-        <v>5113</v>
+        <v>4907</v>
       </c>
       <c r="O12" t="n">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>17902</v>
+        <v>15972</v>
       </c>
     </row>
     <row r="13">
@@ -1283,16 +1283,16 @@
         <v>469642</v>
       </c>
       <c r="N13" t="n">
-        <v>3734</v>
+        <v>3552</v>
       </c>
       <c r="O13" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="P13" t="n">
         <v>1789</v>
       </c>
       <c r="Q13" t="n">
-        <v>14308</v>
+        <v>12274</v>
       </c>
     </row>
     <row r="14">
@@ -1348,16 +1348,16 @@
         <v>1212960</v>
       </c>
       <c r="N14" t="n">
-        <v>8330</v>
+        <v>7956</v>
       </c>
       <c r="O14" t="n">
-        <v>210</v>
+        <v>69</v>
       </c>
       <c r="P14" t="n">
         <v>74775</v>
       </c>
       <c r="Q14" t="n">
-        <v>28098</v>
+        <v>24655</v>
       </c>
     </row>
     <row r="15">
@@ -1413,16 +1413,16 @@
         <v>856880</v>
       </c>
       <c r="N15" t="n">
-        <v>6122</v>
+        <v>5956</v>
       </c>
       <c r="O15" t="n">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="P15" t="n">
         <v>1081</v>
       </c>
       <c r="Q15" t="n">
-        <v>20667</v>
+        <v>18758</v>
       </c>
     </row>
     <row r="16">
@@ -1478,16 +1478,16 @@
         <v>484050</v>
       </c>
       <c r="N16" t="n">
-        <v>2824</v>
+        <v>2746</v>
       </c>
       <c r="O16" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P16" t="n">
         <v>1803</v>
       </c>
       <c r="Q16" t="n">
-        <v>9318</v>
+        <v>9050</v>
       </c>
     </row>
     <row r="17">
@@ -1543,16 +1543,16 @@
         <v>443180</v>
       </c>
       <c r="N17" t="n">
-        <v>3761</v>
+        <v>3512</v>
       </c>
       <c r="O17" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="P17" t="n">
         <v>381</v>
       </c>
       <c r="Q17" t="n">
-        <v>11653</v>
+        <v>11330</v>
       </c>
     </row>
     <row r="18">
@@ -1608,16 +1608,16 @@
         <v>378893</v>
       </c>
       <c r="N18" t="n">
-        <v>3465</v>
+        <v>3360</v>
       </c>
       <c r="O18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P18" t="n">
         <v>1523</v>
       </c>
       <c r="Q18" t="n">
-        <v>14676</v>
+        <v>9932</v>
       </c>
     </row>
     <row r="19">
@@ -1673,16 +1673,16 @@
         <v>145603</v>
       </c>
       <c r="N19" t="n">
-        <v>1493</v>
+        <v>1468</v>
       </c>
       <c r="O19" t="n">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>3033</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="20">
@@ -1738,16 +1738,16 @@
         <v>134358</v>
       </c>
       <c r="N20" t="n">
-        <v>1649</v>
+        <v>1629</v>
       </c>
       <c r="O20" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>2953</v>
+        <v>8811</v>
       </c>
     </row>
     <row r="21">
@@ -1803,16 +1803,16 @@
         <v>143513</v>
       </c>
       <c r="N21" t="n">
-        <v>1183</v>
+        <v>1147</v>
       </c>
       <c r="O21" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>2793</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22">
@@ -1868,16 +1868,16 @@
         <v>35506</v>
       </c>
       <c r="N22" t="n">
-        <v>1966</v>
+        <v>1958</v>
       </c>
       <c r="O22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>757</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="23">
@@ -1933,16 +1933,16 @@
         <v>38002</v>
       </c>
       <c r="N23" t="n">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="O23" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>768</v>
+        <v>505</v>
       </c>
     </row>
     <row r="24">
@@ -1998,16 +1998,16 @@
         <v>528051</v>
       </c>
       <c r="N24" t="n">
-        <v>3326</v>
+        <v>3117</v>
       </c>
       <c r="O24" t="n">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="P24" t="n">
         <v>632</v>
       </c>
       <c r="Q24" t="n">
-        <v>10360</v>
+        <v>9962</v>
       </c>
     </row>
     <row r="25">
@@ -2063,16 +2063,16 @@
         <v>370280</v>
       </c>
       <c r="N25" t="n">
-        <v>2330</v>
+        <v>2245</v>
       </c>
       <c r="O25" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P25" t="n">
         <v>1077</v>
       </c>
       <c r="Q25" t="n">
-        <v>9022</v>
+        <v>8866</v>
       </c>
     </row>
     <row r="26">
@@ -2128,16 +2128,16 @@
         <v>259238</v>
       </c>
       <c r="N26" t="n">
-        <v>2320</v>
+        <v>2277</v>
       </c>
       <c r="O26" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="P26" t="n">
         <v>14168</v>
       </c>
       <c r="Q26" t="n">
-        <v>5786</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="27">
@@ -2193,16 +2193,16 @@
         <v>424004</v>
       </c>
       <c r="N27" t="n">
-        <v>3653</v>
+        <v>3546</v>
       </c>
       <c r="O27" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="P27" t="n">
         <v>6254</v>
       </c>
       <c r="Q27" t="n">
-        <v>8386</v>
+        <v>7427</v>
       </c>
     </row>
     <row r="28">
@@ -2258,16 +2258,16 @@
         <v>430812</v>
       </c>
       <c r="N28" t="n">
-        <v>4903</v>
+        <v>4784</v>
       </c>
       <c r="O28" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="P28" t="n">
         <v>47568</v>
       </c>
       <c r="Q28" t="n">
-        <v>8515</v>
+        <v>6954</v>
       </c>
     </row>
     <row r="29">
@@ -2323,16 +2323,16 @@
         <v>353194</v>
       </c>
       <c r="N29" t="n">
-        <v>3484</v>
+        <v>3384</v>
       </c>
       <c r="O29" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="P29" t="n">
         <v>151</v>
       </c>
       <c r="Q29" t="n">
-        <v>7848</v>
+        <v>6932</v>
       </c>
     </row>
     <row r="30">
@@ -2388,16 +2388,16 @@
         <v>207734</v>
       </c>
       <c r="N30" t="n">
-        <v>1651</v>
+        <v>1613</v>
       </c>
       <c r="O30" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>3536</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="31">
@@ -2453,16 +2453,16 @@
         <v>127697</v>
       </c>
       <c r="N31" t="n">
-        <v>2358</v>
+        <v>2330</v>
       </c>
       <c r="O31" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="P31" t="n">
         <v>3864</v>
       </c>
       <c r="Q31" t="n">
-        <v>3278</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="32">
@@ -2518,16 +2518,16 @@
         <v>530664</v>
       </c>
       <c r="N32" t="n">
-        <v>4026</v>
+        <v>3875</v>
       </c>
       <c r="O32" t="n">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="P32" t="n">
         <v>4188</v>
       </c>
       <c r="Q32" t="n">
-        <v>11542</v>
+        <v>10710</v>
       </c>
     </row>
     <row r="33">
@@ -2583,16 +2583,16 @@
         <v>438973</v>
       </c>
       <c r="N33" t="n">
-        <v>3500</v>
+        <v>3350</v>
       </c>
       <c r="O33" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="P33" t="n">
         <v>2178</v>
       </c>
       <c r="Q33" t="n">
-        <v>9109</v>
+        <v>8491</v>
       </c>
     </row>
     <row r="34">
@@ -2648,16 +2648,16 @@
         <v>298970</v>
       </c>
       <c r="N34" t="n">
-        <v>2987</v>
+        <v>2935</v>
       </c>
       <c r="O34" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P34" t="n">
         <v>26678</v>
       </c>
       <c r="Q34" t="n">
-        <v>6366</v>
+        <v>5299</v>
       </c>
     </row>
     <row r="35">
@@ -2713,16 +2713,16 @@
         <v>209501</v>
       </c>
       <c r="N35" t="n">
-        <v>1195</v>
+        <v>1137</v>
       </c>
       <c r="O35" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="P35" t="n">
         <v>476</v>
       </c>
       <c r="Q35" t="n">
-        <v>3484</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="36">
@@ -2778,7 +2778,7 @@
         <v>77555</v>
       </c>
       <c r="N36" t="n">
-        <v>1043</v>
+        <v>1027</v>
       </c>
       <c r="O36" t="n">
         <v>12</v>
@@ -2787,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>1572</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="37">
@@ -2843,16 +2843,16 @@
         <v>71258</v>
       </c>
       <c r="N37" t="n">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="O37" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P37" t="n">
         <v>327</v>
       </c>
       <c r="Q37" t="n">
-        <v>1444</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="38">
@@ -2908,16 +2908,16 @@
         <v>858460</v>
       </c>
       <c r="N38" t="n">
-        <v>6555</v>
+        <v>6345</v>
       </c>
       <c r="O38" t="n">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="P38" t="n">
         <v>3384</v>
       </c>
       <c r="Q38" t="n">
-        <v>20106</v>
+        <v>20151</v>
       </c>
     </row>
     <row r="39">
@@ -2973,16 +2973,16 @@
         <v>309238</v>
       </c>
       <c r="N39" t="n">
-        <v>2533</v>
+        <v>2425</v>
       </c>
       <c r="O39" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="P39" t="n">
         <v>325</v>
       </c>
       <c r="Q39" t="n">
-        <v>6425</v>
+        <v>5899</v>
       </c>
     </row>
     <row r="40">
@@ -3038,16 +3038,16 @@
         <v>115940</v>
       </c>
       <c r="N40" t="n">
-        <v>1158</v>
+        <v>1115</v>
       </c>
       <c r="O40" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P40" t="n">
         <v>36</v>
       </c>
       <c r="Q40" t="n">
-        <v>2589</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="41">
@@ -3103,16 +3103,16 @@
         <v>105165</v>
       </c>
       <c r="N41" t="n">
-        <v>1112</v>
+        <v>1092</v>
       </c>
       <c r="O41" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P41" t="n">
         <v>245</v>
       </c>
       <c r="Q41" t="n">
-        <v>2746</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="42">
@@ -3168,16 +3168,16 @@
         <v>162516</v>
       </c>
       <c r="N42" t="n">
-        <v>2048</v>
+        <v>2025</v>
       </c>
       <c r="O42" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P42" t="n">
         <v>280</v>
       </c>
       <c r="Q42" t="n">
-        <v>4205</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="43">
@@ -3233,16 +3233,16 @@
         <v>288244</v>
       </c>
       <c r="N43" t="n">
-        <v>2669</v>
+        <v>2618</v>
       </c>
       <c r="O43" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="P43" t="n">
         <v>19739</v>
       </c>
       <c r="Q43" t="n">
-        <v>4915</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="44">
@@ -3298,16 +3298,16 @@
         <v>738451</v>
       </c>
       <c r="N44" t="n">
-        <v>5617</v>
+        <v>5322</v>
       </c>
       <c r="O44" t="n">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="P44" t="n">
         <v>59033</v>
       </c>
       <c r="Q44" t="n">
-        <v>12868</v>
+        <v>12280</v>
       </c>
     </row>
     <row r="45">
@@ -3363,16 +3363,16 @@
         <v>409454</v>
       </c>
       <c r="N45" t="n">
-        <v>3492</v>
+        <v>3334</v>
       </c>
       <c r="O45" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="P45" t="n">
         <v>5803</v>
       </c>
       <c r="Q45" t="n">
-        <v>7463</v>
+        <v>6925</v>
       </c>
     </row>
     <row r="46">
@@ -3428,16 +3428,16 @@
         <v>520282</v>
       </c>
       <c r="N46" t="n">
-        <v>4147</v>
+        <v>4003</v>
       </c>
       <c r="O46" t="n">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="P46" t="n">
         <v>12016</v>
       </c>
       <c r="Q46" t="n">
-        <v>11791</v>
+        <v>9933</v>
       </c>
     </row>
     <row r="47">
@@ -3493,16 +3493,16 @@
         <v>207051</v>
       </c>
       <c r="N47" t="n">
-        <v>2021</v>
+        <v>1981</v>
       </c>
       <c r="O47" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="P47" t="n">
         <v>132</v>
       </c>
       <c r="Q47" t="n">
-        <v>4139</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="48">
@@ -3558,16 +3558,16 @@
         <v>98232</v>
       </c>
       <c r="N48" t="n">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="O48" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="P48" t="n">
         <v>26460</v>
       </c>
       <c r="Q48" t="n">
-        <v>2117</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="49">
@@ -3626,13 +3626,13 @@
         <v>648</v>
       </c>
       <c r="O49" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="P49" t="n">
         <v>39405</v>
       </c>
       <c r="Q49" t="n">
-        <v>1556</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="50">
